--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2358261.73696207</v>
+        <v>2462441.37141314</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>259.290893808865</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>35.26488194757149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.7029035467948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>5.247097505316303</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8420908016154</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>112.6481021990959</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.3866485609005</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>78.96122915361011</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>84.34466057911351</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>64.83435391452865</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>73.88488384266533</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.9967539344705</v>
+        <v>183.8417748468611</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576147</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>23.41986852521076</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>159.3471710336506</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2132,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.3135037226517</v>
+        <v>78.71385496658219</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,13 +2377,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>101.393069766706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346627</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>160.4288002907009</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833816</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.13408744447714</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>172.7365230047954</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>105.6507867899569</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>15.76045942438941</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>743.4945603335152</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>328.4221101785117</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2752.944093773487</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>2752.944093773487</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1853.982617026599</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.020100086187</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1126.754401479436</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.58245709072</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>342.366968906868</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X7" t="n">
-        <v>114.3774180088506</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,13 +4828,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4841,13 +4843,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2339.547414603163</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1966.081656342083</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1575.942324366272</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.0013628104952</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>132.0013628104952</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>132.0013628104952</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>132.0013628104952</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>132.0013628104952</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4989,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387522</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X10" t="n">
-        <v>313.6498276407349</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.6498276407349</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5124,22 +5126,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679489</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5275,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5512,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5543,13 +5545,13 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3274571940295</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5348780504994</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232838</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1053.171308869725</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>884.2351259418183</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>734.1184865294825</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.612352843495</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1234.819773699965</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6503,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6707,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,19 +6727,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6898,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,13 +7022,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.3544215660705</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>612.4182386381636</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.625621515132</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.770787170036</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.169322192977</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.094095537175</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.409607331288</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.992437294328</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>963.0028863963103</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.0028863963103</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,7 +7174,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2272.48174721178</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2273.199413378161</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,19 +7715,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
         <v>577.3880777468471</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7836,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.58789941762433</v>
+        <v>34.7428785052337</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6.726664722474339</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>66.36248435538656</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.51847645928555</v>
+        <v>101.1181252153551</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>45.04089287986319</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.1584408891653</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011418</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>58.15585306139386</v>
       </c>
     </row>
     <row r="32">
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393068</v>
+        <v>131.695219374394</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.24115926564455</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>8.289762996849163</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>75.37549921168767</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>149.7636788678794</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930395</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597551</v>
@@ -26326,34 +26328,34 @@
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26377,7 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186743</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186746</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482181</v>
+        <v>-893968.0587482189</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793739</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793745</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="E6" t="n">
         <v>184176.9270866254</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939803</v>
+        <v>509589.3888939802</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939803</v>
+        <v>509589.3888939802</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939805</v>
+        <v>509589.3888939804</v>
       </c>
       <c r="I6" t="n">
         <v>509589.3888939804</v>
       </c>
       <c r="J6" t="n">
-        <v>292058.186496703</v>
+        <v>292058.1864967029</v>
       </c>
       <c r="K6" t="n">
-        <v>509589.3888939805</v>
+        <v>509589.3888939804</v>
       </c>
       <c r="L6" t="n">
         <v>509589.3888939805</v>
       </c>
       <c r="M6" t="n">
-        <v>424534.3609584686</v>
+        <v>424534.3609584685</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939802</v>
+        <v>509589.3888939804</v>
       </c>
       <c r="O6" t="n">
         <v>509589.3888939804</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939804</v>
+        <v>509589.3888939802</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35.31687057845551</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>313.9760867698415</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.88174980529999</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.88174980530002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>377.4867441581643</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>150.0882792706464</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,22 +27827,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>113.0615531899413</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.1980047911943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>302.9691409186516</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>264.8963081382995</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.1914543444996</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>151.8247715463718</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,13 +28332,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.414636683656336e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28390,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28564,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28612,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,16 +28803,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28852,22 +28854,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29041,13 +29043,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29086,16 +29088,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29478,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31844,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32002,7 +32004,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
         <v>965.6463440175675</v>
@@ -32075,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32950,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33740,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33892,10 +33894,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159409</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193501</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462441.37141314</v>
+        <v>2458428.761399147</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>406.2259776157924</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>259.290893808865</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.5522128412692</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>4.426668121432772</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.247097505316303</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>286.421937954811</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>98.3359601467572</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>112.6481021990959</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>78.96122915361011</v>
+        <v>108.9520512661132</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>73.88488384266533</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722629</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.8417748468611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576147</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.41986852521076</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.7072979240948</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.71385496658219</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346627</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>160.4288002907009</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>33.82891891787487</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>172.7365230047954</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.76045942438941</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.708680670285</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C2" t="n">
-        <v>1512.746163729873</v>
+        <v>1292.176434273451</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.480465123123</v>
+        <v>933.9107356667005</v>
       </c>
       <c r="E2" t="n">
-        <v>1154.480465123123</v>
+        <v>933.9107356667005</v>
       </c>
       <c r="F2" t="n">
-        <v>743.4945603335152</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4221101785117</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.308520734407</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.4459618444151</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165083</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D4" t="n">
-        <v>199.3931395041725</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746549</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1879.829578210441</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1510.867061270029</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1152.601362663279</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>766.8131100650344</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>355.8272052754268</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557433</v>
+        <v>2266.429418274563</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4658,28 +4658,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>462.8479560159217</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>312.7313166035859</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X7" t="n">
-        <v>585.3344285704424</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269122</v>
+        <v>631.7841389438286</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855437</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855437</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>1311.909787855437</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>84.48966329598636</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>384.6861761966524</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>384.6861761966524</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>310.0549803959803</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5263,64 +5263,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5430,58 +5430,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,55 +5503,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1178.176104674215</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.6425904082687</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>470.7064074803617</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.2910552385084</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>127.9872882175424</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2272.48174721178</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2052.880282234721</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1763.805055578919</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1509.120567373032</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1219.703397336071</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>991.7138464380538</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.7428785052337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>6.726664722474339</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.1181252153551</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891653</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671011418</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.15585306139386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>8.289762996849163</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>75.37549921168727</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>149.7636788678794</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930392</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800996.6458930395</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="F4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="F4" t="n">
-        <v>14826.69604186744</v>
-      </c>
       <c r="G4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186743</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482189</v>
+        <v>-893968.0587482183</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793739</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="E6" t="n">
-        <v>184176.9270866254</v>
+        <v>183829.5478322679</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939802</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939802</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="I6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="J6" t="n">
-        <v>292058.1864967029</v>
+        <v>291710.8072423459</v>
       </c>
       <c r="K6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="L6" t="n">
-        <v>509589.3888939805</v>
+        <v>509242.0096396235</v>
       </c>
       <c r="M6" t="n">
-        <v>424534.3609584685</v>
+        <v>424186.9817041116</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="O6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939802</v>
+        <v>509242.0096396233</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,34 +26792,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.650068125919006</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.31687057845551</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.88174980529999</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>215.1222811547364</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.4867441581643</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>124.4997876986425</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.09800249981197</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>113.0615531899413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>302.9691409186516</v>
+        <v>272.9783188061485</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>151.8247715463718</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28332,13 +28332,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28566,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28803,16 +28803,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28854,22 +28854,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29043,13 +29043,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29088,16 +29088,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29480,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.517303009959066e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-8.761884095931661e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2458428.761399147</v>
+        <v>2460189.291701932</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>359.5328656211577</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.2259776157924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609191</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>22.42534453352322</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.426668121432772</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>340.3076597151608</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>286.421937954811</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>98.3359601467572</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.62664829320016</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661132</v>
+        <v>108.9520512661115</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386362</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634783</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693809</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766915</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822257</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.176434273451</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>933.9107356667005</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>933.9107356667005</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>530.184207459804</v>
       </c>
       <c r="D4" t="n">
         <v>507.5323442946291</v>
@@ -4476,64 +4476,64 @@
         <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.5851666348717</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.829578210441</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C5" t="n">
-        <v>1510.867061270029</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.601362663279</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>766.8131100650344</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>355.8272052754268</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250374</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274563</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="C7" t="n">
-        <v>462.8479560159217</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="D7" t="n">
-        <v>312.7313166035859</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>229.1865571555485</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>82.29660965763813</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W7" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X7" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324644</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598636</v>
+        <v>84.48966329598632</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4944,67 +4944,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438185</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1022.530292372931</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.378057281678</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.960887244718</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.9713363467</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.17875720317</v>
       </c>
     </row>
     <row r="14">
@@ -5269,49 +5269,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,34 +5342,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400771</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908938</v>
@@ -5667,58 +5667,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038403</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797804</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570823</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832669</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713847</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703169</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,46 +5740,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6244,31 +6244,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,10 +7192,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.37549921168974</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392193637</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>180.5336875992865</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>15.00954930701846</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800996.6458930392</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.6960418675</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="G4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186732</v>
-      </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186743</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482183</v>
+        <v>-893968.0587482185</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793741</v>
       </c>
       <c r="E6" t="n">
-        <v>183829.5478322679</v>
+        <v>184142.1891611898</v>
       </c>
       <c r="F6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685442</v>
       </c>
       <c r="G6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685446</v>
       </c>
       <c r="H6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="I6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="J6" t="n">
-        <v>291710.8072423459</v>
+        <v>292023.4485712669</v>
       </c>
       <c r="K6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="L6" t="n">
-        <v>509242.0096396235</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="M6" t="n">
-        <v>424186.9817041116</v>
+        <v>424499.6230330327</v>
       </c>
       <c r="N6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="O6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="P6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685446</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>23.20097604232291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.650068125919006</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>126.1901284846891</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>215.1222811547364</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>24.9652320558468</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>124.4997876986425</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>48.09800249981197</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>150.3991599658281</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061485</v>
+        <v>272.9783188061504</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282312</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.302097210178607e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28098,13 +28098,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.532638197532927e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>6.195507963618194e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.761884095931661e-13</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622676</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402493</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096411</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
